--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06594262563616313</v>
+        <v>0.06945541931069417</v>
       </c>
       <c r="H2" t="n">
-        <v>-30.38216825778036</v>
+        <v>-26.67359468159382</v>
       </c>
       <c r="I2" t="n">
-        <v>33.40234887091074</v>
+        <v>44.18294189445411</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09702419516003097</v>
+        <v>0.09349869261810012</v>
       </c>
       <c r="H3" t="n">
-        <v>46.79748943833924</v>
+        <v>41.46340837422618</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01538708387452448</v>
+        <v>0.0319872546868956</v>
       </c>
       <c r="H4" t="n">
-        <v>64.12421060746877</v>
+        <v>241.18764593717</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02723854551843541</v>
+        <v>-0.002380750856928651</v>
       </c>
       <c r="H5" t="n">
-        <v>103.4273881042269</v>
+        <v>82.21968466619821</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2609141545998175</v>
+        <v>-0.2224733353303241</v>
       </c>
       <c r="H6" t="n">
-        <v>17.95625717213924</v>
+        <v>-0.5776095069149511</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2037278114954199</v>
+        <v>-0.1632254436820946</v>
       </c>
       <c r="H7" t="n">
-        <v>-18.46833600500963</v>
+        <v>34.67734261691146</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3848944312099292</v>
+        <v>-0.4272931295765198</v>
       </c>
       <c r="H8" t="n">
-        <v>3.953633866797884</v>
+        <v>-15.4048225799581</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4120516325453524</v>
+        <v>-0.4677568661113735</v>
       </c>
       <c r="H9" t="n">
-        <v>3.365806838267072</v>
+        <v>-17.33982358247239</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03142576320332963</v>
+        <v>-0.04780475720886686</v>
       </c>
       <c r="H10" t="n">
-        <v>-293.9276759272577</v>
+        <v>-395.0020785111791</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08919571814935272</v>
+        <v>0.1006826925446078</v>
       </c>
       <c r="H11" t="n">
-        <v>-655.1876927470738</v>
+        <v>726.6869411803648</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2310351204276539</v>
+        <v>0.2142891697627738</v>
       </c>
       <c r="H12" t="n">
-        <v>1.693005703028585</v>
+        <v>-5.677934495648033</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2633198360782122</v>
+        <v>0.2575270914992639</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.007879111922568887</v>
+        <v>-2.207594958775476</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02899989685765186</v>
+        <v>-0.04253632807769994</v>
       </c>
       <c r="H14" t="n">
-        <v>203.1156182534764</v>
+        <v>-344.6024565808995</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01094612414933629</v>
+        <v>0.01217757038339743</v>
       </c>
       <c r="H15" t="n">
-        <v>-154.2243901331819</v>
+        <v>-39.67532997662359</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1659130643700023</v>
+        <v>0.1464452094648861</v>
       </c>
       <c r="H16" t="n">
-        <v>40.60535785709851</v>
+        <v>24.10705065002093</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.160148252018062</v>
+        <v>0.2072174633608206</v>
       </c>
       <c r="H17" t="n">
-        <v>-26.81711223211844</v>
+        <v>-5.307912052828935</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06169347635551305</v>
+        <v>0.03540522168747869</v>
       </c>
       <c r="H18" t="n">
-        <v>2.029009081727486</v>
+        <v>-41.44665046469648</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06608329864323562</v>
+        <v>0.08896806781927279</v>
       </c>
       <c r="H19" t="n">
-        <v>-26.64689854402791</v>
+        <v>-1.24458313860303</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2064424989038313</v>
+        <v>-0.1757920433900003</v>
       </c>
       <c r="H20" t="n">
-        <v>41.85468007203429</v>
+        <v>-20.79355852941027</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1764705726742633</v>
+        <v>-0.1495722484360507</v>
       </c>
       <c r="H21" t="n">
-        <v>-11.68960292628772</v>
+        <v>25.15021371309935</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0400489867770151</v>
+        <v>0.03888876448762387</v>
       </c>
       <c r="H22" t="n">
-        <v>-26.36462426846293</v>
+        <v>-28.49784688123723</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.064556946755186</v>
+        <v>0.04882927976274308</v>
       </c>
       <c r="H23" t="n">
-        <v>58.07227533561616</v>
+        <v>19.56196417353189</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1266379969440539</v>
+        <v>0.1102964164904302</v>
       </c>
       <c r="H24" t="n">
-        <v>9.421296645504018</v>
+        <v>-4.698611799212473</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.169499223935716</v>
+        <v>0.1564294645494417</v>
       </c>
       <c r="H25" t="n">
-        <v>11.45689792494153</v>
+        <v>2.862670742096184</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01820790828064661</v>
+        <v>0.005121160308161785</v>
       </c>
       <c r="H26" t="n">
-        <v>-65.56540329320458</v>
+        <v>-90.31491771793257</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04310669022565676</v>
+        <v>0.02571075827568861</v>
       </c>
       <c r="H27" t="n">
-        <v>-14.58407540333576</v>
+        <v>-49.05412179169874</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1622869672452911</v>
+        <v>0.1852169158322425</v>
       </c>
       <c r="H28" t="n">
-        <v>6.131599652031582</v>
+        <v>21.12720998834223</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1771718586614895</v>
+        <v>0.1712427901252587</v>
       </c>
       <c r="H29" t="n">
-        <v>3.789486649108478</v>
+        <v>0.3161642810312146</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03660607725697868</v>
+        <v>0.02012504302092714</v>
       </c>
       <c r="H30" t="n">
-        <v>87.08941389007491</v>
+        <v>2.856760009159318</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03429664044876861</v>
+        <v>0.03576073969376106</v>
       </c>
       <c r="H31" t="n">
-        <v>253.3925228063887</v>
+        <v>268.4785988493088</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004544596347164535</v>
+        <v>0.02306417761190661</v>
       </c>
       <c r="H32" t="n">
-        <v>-87.81389760909035</v>
+        <v>-38.15458877526477</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.009406539123004376</v>
+        <v>0.007488741468394969</v>
       </c>
       <c r="H33" t="n">
-        <v>-63.96464428061858</v>
+        <v>-71.31150371297191</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1214323955898484</v>
+        <v>0.08028610370952603</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.107224148603992</v>
+        <v>-37.26080090668251</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.126242236281507</v>
+        <v>0.1152670058733629</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.879640621313867</v>
+        <v>-10.41001511111316</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0002739013031162169</v>
+        <v>-0.01544068208486425</v>
       </c>
       <c r="H36" t="n">
-        <v>-98.17786486377179</v>
+        <v>-202.7195162420344</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.006562463883036614</v>
+        <v>-0.01321741388607327</v>
       </c>
       <c r="H37" t="n">
-        <v>-57.14865746454709</v>
+        <v>-186.3065976376692</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0305936879273196</v>
+        <v>-0.0002570172406311324</v>
       </c>
       <c r="H38" t="n">
-        <v>1397.918350276084</v>
+        <v>87.41600417728954</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01035076926553695</v>
+        <v>-0.008343232672271031</v>
       </c>
       <c r="H39" t="n">
-        <v>-69.01821826163086</v>
+        <v>75.0271494790854</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1337061453075509</v>
+        <v>0.1370862529706723</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.381864673628936</v>
+        <v>-7.091027158794515</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1388585874645118</v>
+        <v>0.1454647524234101</v>
       </c>
       <c r="H41" t="n">
-        <v>-13.96575558607231</v>
+        <v>-9.872696445183125</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02876516143500923</v>
+        <v>0.03435261780493961</v>
       </c>
       <c r="H42" t="n">
-        <v>-55.44768199915833</v>
+        <v>-46.79366719130135</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.046974494587988</v>
+        <v>0.08121713682090591</v>
       </c>
       <c r="H43" t="n">
-        <v>35.13747858978886</v>
+        <v>133.6476248339604</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01268852536792095</v>
+        <v>0.03715818435271305</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.09196651545765</v>
+        <v>163.2945268371974</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03742938477708761</v>
+        <v>0.02236503426017778</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.837864254935651</v>
+        <v>-45.52824468497757</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0807943347693518</v>
+        <v>-0.06583910550071984</v>
       </c>
       <c r="H46" t="n">
-        <v>22.75068625768224</v>
+        <v>-0.02923355798230415</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.08202424802105586</v>
+        <v>-0.08606578252273069</v>
       </c>
       <c r="H47" t="n">
-        <v>98.55927891172043</v>
+        <v>-108.3427782513717</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1453312243753192</v>
+        <v>-0.1033774318657585</v>
       </c>
       <c r="H48" t="n">
-        <v>15.36475653551975</v>
+        <v>17.93840374136519</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.08938535719425079</v>
+        <v>-0.1447366959655899</v>
       </c>
       <c r="H49" t="n">
-        <v>-54.73733009120967</v>
+        <v>26.7086970526666</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06907347852733617</v>
+        <v>0.09686235988120949</v>
       </c>
       <c r="H50" t="n">
-        <v>-36.55629260253747</v>
+        <v>-11.03231878355261</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1412689809300333</v>
+        <v>0.1545542984444849</v>
       </c>
       <c r="H51" t="n">
-        <v>40.88741788596128</v>
+        <v>54.13685217849888</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05119750404671808</v>
+        <v>0.06859152454239748</v>
       </c>
       <c r="H52" t="n">
-        <v>-14.12560039176911</v>
+        <v>15.04967083779549</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03117116570257339</v>
+        <v>0.05293799105957257</v>
       </c>
       <c r="H53" t="n">
-        <v>-53.8496762380397</v>
+        <v>-21.62290464147322</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1196137313377459</v>
+        <v>-0.0922424933611274</v>
       </c>
       <c r="H54" t="n">
-        <v>71.07085034694487</v>
+        <v>-31.92466785317035</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.02287433755969806</v>
+        <v>-0.0487036717490799</v>
       </c>
       <c r="H55" t="n">
-        <v>-70.38391738885814</v>
+        <v>36.94191308394215</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06764400456179613</v>
+        <v>0.09211789837797493</v>
       </c>
       <c r="H56" t="n">
-        <v>47.61029967157941</v>
+        <v>101.0163453919548</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06810860857636265</v>
+        <v>0.1183627517465083</v>
       </c>
       <c r="H57" t="n">
-        <v>1217.310424238358</v>
+        <v>2189.291911497441</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06945541931069417</v>
+        <v>0.09355383683086951</v>
       </c>
       <c r="H2" t="n">
-        <v>-26.67359468159382</v>
+        <v>-1.232090647012569</v>
       </c>
       <c r="I2" t="n">
-        <v>44.18294189445411</v>
+        <v>-39.30609181603342</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09349869261810012</v>
+        <v>0.09315875159826537</v>
       </c>
       <c r="H3" t="n">
-        <v>41.46340837422618</v>
+        <v>40.94907802408473</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0319872546868956</v>
+        <v>-0.03485944612852575</v>
       </c>
       <c r="H4" t="n">
-        <v>241.18764593717</v>
+        <v>-471.8234803106694</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.002380750856928651</v>
+        <v>-0.01639358031618353</v>
       </c>
       <c r="H5" t="n">
-        <v>82.21968466619821</v>
+        <v>-22.43323429810065</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2224733353303241</v>
+        <v>-0.2341564340652409</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5776095069149511</v>
+        <v>-5.859402673931979</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1632254436820946</v>
+        <v>-0.2104800223316823</v>
       </c>
       <c r="H7" t="n">
-        <v>34.67734261691146</v>
+        <v>15.7661080613405</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4272931295765198</v>
+        <v>-0.3637366742125455</v>
       </c>
       <c r="H8" t="n">
-        <v>-15.4048225799581</v>
+        <v>1.760727126773091</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4677568661113735</v>
+        <v>-0.4057254922218577</v>
       </c>
       <c r="H9" t="n">
-        <v>-17.33982358247239</v>
+        <v>-1.778853779324516</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04780475720886686</v>
+        <v>-0.007219825182621979</v>
       </c>
       <c r="H10" t="n">
-        <v>-395.0020785111791</v>
+        <v>-144.5533783605492</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1006826925446078</v>
+        <v>0.1005468291799932</v>
       </c>
       <c r="H11" t="n">
-        <v>726.6869411803648</v>
+        <v>725.8412765061602</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2142891697627738</v>
+        <v>0.2228508434658396</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.677934495648033</v>
+        <v>-1.909406441983653</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2575270914992639</v>
+        <v>0.2632002203600229</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.207594958775476</v>
+        <v>-0.05330155153606771</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04253632807769994</v>
+        <v>-0.06773546902957142</v>
       </c>
       <c r="H14" t="n">
-        <v>-344.6024565808995</v>
+        <v>-607.9914343616121</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01217757038339743</v>
+        <v>-0.005463744584387026</v>
       </c>
       <c r="H15" t="n">
-        <v>-39.67532997662359</v>
+        <v>-127.0660385255932</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1464452094648861</v>
+        <v>0.1418167598673289</v>
       </c>
       <c r="H16" t="n">
-        <v>24.10705065002093</v>
+        <v>20.18460599830405</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2072174633608206</v>
+        <v>0.1737968055846164</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.307912052828935</v>
+        <v>-20.58013773337449</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03540522168747869</v>
+        <v>0.04277160040352979</v>
       </c>
       <c r="H18" t="n">
-        <v>-41.44665046469648</v>
+        <v>-29.26409299965166</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08896806781927279</v>
+        <v>0.09722995818674758</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.24458313860303</v>
+        <v>7.926195178855125</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1757920433900003</v>
+        <v>-0.1660079485391075</v>
       </c>
       <c r="H20" t="n">
-        <v>-20.79355852941027</v>
+        <v>-14.07052595502557</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1495722484360507</v>
+        <v>-0.1820990095074113</v>
       </c>
       <c r="H21" t="n">
-        <v>25.15021371309935</v>
+        <v>8.872988891963239</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03888876448762387</v>
+        <v>0.04966537345960819</v>
       </c>
       <c r="H22" t="n">
-        <v>-28.49784688123723</v>
+        <v>-8.683621488165691</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04882927976274308</v>
+        <v>0.05907778408778319</v>
       </c>
       <c r="H23" t="n">
-        <v>19.56196417353189</v>
+        <v>44.65615587360412</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1102964164904302</v>
+        <v>0.1450338375382942</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.698611799212473</v>
+        <v>25.3161842722803</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1564294645494417</v>
+        <v>0.1424787478059539</v>
       </c>
       <c r="H25" t="n">
-        <v>2.862670742096184</v>
+        <v>-6.31084389681687</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005121160308161785</v>
+        <v>0.00691776711528883</v>
       </c>
       <c r="H26" t="n">
-        <v>-90.31491771793257</v>
+        <v>-86.91719460275957</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02571075827568861</v>
+        <v>0.02558299430154447</v>
       </c>
       <c r="H27" t="n">
-        <v>-49.05412179169874</v>
+        <v>-49.30728615956224</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1852169158322425</v>
+        <v>0.1596815804839949</v>
       </c>
       <c r="H28" t="n">
-        <v>21.12720998834223</v>
+        <v>4.427742161918706</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712427901252587</v>
+        <v>0.184984367196109</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3161642810312146</v>
+        <v>8.366151681444043</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02012504302092714</v>
+        <v>0.01876653806405204</v>
       </c>
       <c r="H30" t="n">
-        <v>2.856760009159318</v>
+        <v>-4.086401214161048</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03576073969376106</v>
+        <v>0.02898067054104423</v>
       </c>
       <c r="H31" t="n">
-        <v>268.4785988493088</v>
+        <v>198.6167782357273</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02306417761190661</v>
+        <v>0.02271605651033349</v>
       </c>
       <c r="H32" t="n">
-        <v>-38.15458877526477</v>
+        <v>-39.08805768298264</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007488741468394969</v>
+        <v>-0.004345234279451735</v>
       </c>
       <c r="H33" t="n">
-        <v>-71.31150371297191</v>
+        <v>-116.6460863976168</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08028610370952603</v>
+        <v>0.1055534554179075</v>
       </c>
       <c r="H34" t="n">
-        <v>-37.26080090668251</v>
+        <v>-17.51574745224605</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1152670058733629</v>
+        <v>0.1712226295672531</v>
       </c>
       <c r="H35" t="n">
-        <v>-10.41001511111316</v>
+        <v>33.08086454868662</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01544068208486425</v>
+        <v>-0.01190553006132855</v>
       </c>
       <c r="H36" t="n">
-        <v>-202.7195162420344</v>
+        <v>-179.2018307082073</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01321741388607327</v>
+        <v>0.0003132051888267698</v>
       </c>
       <c r="H37" t="n">
-        <v>-186.3065976376692</v>
+        <v>-97.95484393217158</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0002570172406311324</v>
+        <v>-0.05457278894645743</v>
       </c>
       <c r="H38" t="n">
-        <v>87.41600417728954</v>
+        <v>-2571.975414760152</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.008343232672271031</v>
+        <v>-0.02434570647430555</v>
       </c>
       <c r="H39" t="n">
-        <v>75.0271494790854</v>
+        <v>27.12876261625307</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1370862529706723</v>
+        <v>0.1575386575255652</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.091027158794515</v>
+        <v>6.770405757709627</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1454647524234101</v>
+        <v>0.1546372211322629</v>
       </c>
       <c r="H41" t="n">
-        <v>-9.872696445183125</v>
+        <v>-4.189602376706962</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03435261780493961</v>
+        <v>0.05597683064991897</v>
       </c>
       <c r="H42" t="n">
-        <v>-46.79366719130135</v>
+        <v>-13.30145789624524</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08121713682090591</v>
+        <v>0.01972873107971296</v>
       </c>
       <c r="H43" t="n">
-        <v>133.6476248339604</v>
+        <v>-43.24386036991727</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03715818435271305</v>
+        <v>0.02978259451089352</v>
       </c>
       <c r="H44" t="n">
-        <v>163.2945268371974</v>
+        <v>111.0327580943088</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02236503426017778</v>
+        <v>0.03904622824837738</v>
       </c>
       <c r="H45" t="n">
-        <v>-45.52824468497757</v>
+        <v>-4.899918042726817</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.06583910550071984</v>
+        <v>-0.05041354899459961</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.02923355798230415</v>
+        <v>23.40678646048049</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.08606578252273069</v>
+        <v>-0.08321886499833031</v>
       </c>
       <c r="H47" t="n">
-        <v>-108.3427782513717</v>
+        <v>-101.4511345678969</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1033774318657585</v>
+        <v>-0.131274698122713</v>
       </c>
       <c r="H48" t="n">
-        <v>17.93840374136519</v>
+        <v>-4.206605657500666</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1447366959655899</v>
+        <v>-0.1446512613410191</v>
       </c>
       <c r="H49" t="n">
-        <v>26.7086970526666</v>
+        <v>26.75195916328642</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09686235988120949</v>
+        <v>0.08833056891999445</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.03231878355261</v>
+        <v>-18.86873387165947</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1545542984444849</v>
+        <v>0.1331291343494277</v>
       </c>
       <c r="H51" t="n">
-        <v>54.13685217849888</v>
+        <v>32.76955677321372</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06859152454239748</v>
+        <v>0.03351564910520254</v>
       </c>
       <c r="H52" t="n">
-        <v>15.04967083779549</v>
+        <v>-43.78366098153749</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05293799105957257</v>
+        <v>0.05987009946767346</v>
       </c>
       <c r="H53" t="n">
-        <v>-21.62290464147322</v>
+        <v>-11.35960392184528</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0922424933611274</v>
+        <v>-0.03872326659956191</v>
       </c>
       <c r="H54" t="n">
-        <v>-31.92466785317035</v>
+        <v>44.61821338309785</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0487036717490799</v>
+        <v>-0.07296990268570148</v>
       </c>
       <c r="H55" t="n">
-        <v>36.94191308394215</v>
+        <v>5.523704875532832</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09211789837797493</v>
+        <v>0.1163191734599165</v>
       </c>
       <c r="H56" t="n">
-        <v>101.0163453919548</v>
+        <v>153.8274923727075</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1183627517465083</v>
+        <v>0.06219180581000838</v>
       </c>
       <c r="H57" t="n">
-        <v>2189.291911497441</v>
+        <v>1102.871645863639</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>